--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lab\DBBenchmarking\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E953D4AB-1096-4AF6-A911-16C0F7EA5FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544CDB42-5B3C-466F-B203-AC7DC458D7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="43">
   <si>
     <t>JSON_Redis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t>Total(gb)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12019,1536 +12023,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F88231F-54AB-EBDA-1BB1-EA93892EBABC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="123825" y="2209800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE1790D-CD9B-A1ED-C5D7-09AD2628333A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4924425" y="2209800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15710E8-5FC5-5EEC-FD22-36692FF15471}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9725025" y="2209800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A63CEB-AEFE-35F8-EEB6-74F125B76DEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="18164175" y="2209800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B8BC1A-A076-ED3D-1F8C-AA411E402C7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="26603325" y="2209800"/>
-          <a:ext cx="4333875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2842E5-537A-B548-0FF2-49D7F10CA2F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="123825" y="6400800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="그림 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DB8B22-DA69-9316-F33B-1FAC5AD503E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="123825" y="10591800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC1347E-AB56-882A-8F61-72180E288A22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="123825" y="14782800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F8D4D84-BA88-69CF-9B01-C27F7E3A49D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="123825" y="18973800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E842FDC7-7849-E14A-7CA5-B54C11AE9C30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4924425" y="6400800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA853E6F-465A-0535-AA49-5B9C242CDEF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4924425" y="10591800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A1EA39-5A28-897F-C2BE-77881015B7FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4924425" y="14782800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819F6EC8-B1FF-E015-E1E4-91E725BEF53D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4924425" y="18973800"/>
-          <a:ext cx="4124325" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="그림 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE60BF5-F60F-58E1-C394-FE04829D2063}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8753475" y="6400800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="그림 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA876B4-416F-1C35-AAEB-268884E0EA9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8753475" y="10591800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="그림 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA9AF21-4490-5AAB-0795-F6A83EF00E2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8753475" y="14782800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="그림 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9958C3-7A62-DE97-0E09-33A93C98D657}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8753475" y="18973800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BF23AB-C03D-1DBA-422A-F57FADF901D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16706850" y="6400800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="그림 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F2A844-FCD0-E683-6D26-41BC5859123C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16706850" y="10591800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="그림 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF0FF2C-6FAB-3199-777B-A05ED3855B3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16706850" y="14782800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="그림 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6FE607-2908-BAA8-984D-58B64133273C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="16706850" y="18973800"/>
-          <a:ext cx="7762875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="그림 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40C3BB2-251D-2026-C0B2-64FFA69AD7F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24660225" y="18973800"/>
-          <a:ext cx="4333875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="그림 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50C66A6-A8A5-36E5-D933-2118642D032A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24660225" y="14782800"/>
-          <a:ext cx="4333875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="그림 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B700B17-9FBE-FB0A-C1D6-FE883E07B16B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24660225" y="10591800"/>
-          <a:ext cx="4333875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="그림 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62EC0297-57EB-09FF-1CF7-6DA9BC54CDEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="24660225" y="6400800"/>
-          <a:ext cx="4333875" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -14250,7 +12724,7 @@
   <dimension ref="B1:AM50"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:AM50"/>
+      <selection activeCell="AL53" sqref="AL53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14499,7 +12973,7 @@
         <v>14</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:39" x14ac:dyDescent="0.3">
@@ -15427,7 +13901,7 @@
         <v>14</v>
       </c>
       <c r="AM14" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:39" x14ac:dyDescent="0.3">
@@ -16355,7 +14829,7 @@
         <v>14</v>
       </c>
       <c r="AM24" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.3">
@@ -17283,7 +15757,7 @@
         <v>14</v>
       </c>
       <c r="AM34" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:39" x14ac:dyDescent="0.3">
@@ -18211,7 +16685,7 @@
         <v>14</v>
       </c>
       <c r="AM44" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:39" x14ac:dyDescent="0.3">
@@ -18912,38 +17386,28 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="O42:Y42"/>
-    <mergeCell ref="Z42:AJ42"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Z43:AF43"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="AK42:AM42"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Z33:AF33"/>
-    <mergeCell ref="AG33:AI33"/>
-    <mergeCell ref="Z23:AF23"/>
-    <mergeCell ref="AG23:AI23"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="O33:U33"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="O23:U23"/>
-    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="O22:Y22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="O2:Y2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Z22:AJ22"/>
+    <mergeCell ref="Z2:AJ2"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="AG13:AI13"/>
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="AK12:AM12"/>
     <mergeCell ref="AK22:AM22"/>
@@ -18960,28 +17424,38 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="Z22:AJ22"/>
-    <mergeCell ref="Z2:AJ2"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="O22:Y22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="O2:Y2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Z23:AF23"/>
+    <mergeCell ref="AG23:AI23"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:U33"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Z43:AF43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="AK42:AM42"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Z33:AF33"/>
+    <mergeCell ref="AG33:AI33"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="O42:Y42"/>
+    <mergeCell ref="Z42:AJ42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18993,8 +17467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA531A88-8A70-47BF-8284-F419A2BF3600}">
   <dimension ref="B1:AP90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS74" sqref="AS74"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z97" sqref="Z97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19237,7 +17711,7 @@
         <v>14</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.3">
@@ -20142,7 +18616,7 @@
         <v>14</v>
       </c>
       <c r="AP24" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.3">
@@ -21047,7 +19521,7 @@
         <v>14</v>
       </c>
       <c r="AP44" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:42" x14ac:dyDescent="0.3">
@@ -21952,7 +20426,7 @@
         <v>14</v>
       </c>
       <c r="AP64" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:42" x14ac:dyDescent="0.3">
@@ -22857,7 +21331,7 @@
         <v>14</v>
       </c>
       <c r="AP84" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="2:42" x14ac:dyDescent="0.3">
@@ -23540,48 +22014,13 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="AB82:AL82"/>
-    <mergeCell ref="AB83:AH83"/>
-    <mergeCell ref="AI83:AK83"/>
-    <mergeCell ref="AN82:AP82"/>
-    <mergeCell ref="AN62:AP62"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="I83:K83"/>
-    <mergeCell ref="L83:N83"/>
-    <mergeCell ref="P82:Z82"/>
-    <mergeCell ref="P83:V83"/>
-    <mergeCell ref="W83:Y83"/>
-    <mergeCell ref="P62:Z62"/>
-    <mergeCell ref="P63:V63"/>
-    <mergeCell ref="W63:Y63"/>
-    <mergeCell ref="AB62:AL62"/>
-    <mergeCell ref="AB63:AH63"/>
-    <mergeCell ref="AI63:AK63"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="I62:N62"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="P43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="AB42:AL42"/>
-    <mergeCell ref="AB43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="AN42:AP42"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="P42:Z42"/>
+    <mergeCell ref="AB2:AL2"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="AN2:AP2"/>
@@ -23598,18 +22037,52 @@
     <mergeCell ref="P2:Z2"/>
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="AB2:AL2"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="AN42:AP42"/>
+    <mergeCell ref="AB23:AH23"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="P42:Z42"/>
+    <mergeCell ref="P43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="AB42:AL42"/>
+    <mergeCell ref="AB43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="I62:N62"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="P82:Z82"/>
+    <mergeCell ref="P83:V83"/>
+    <mergeCell ref="W83:Y83"/>
+    <mergeCell ref="P62:Z62"/>
+    <mergeCell ref="P63:V63"/>
+    <mergeCell ref="W63:Y63"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="L83:N83"/>
+    <mergeCell ref="AB82:AL82"/>
+    <mergeCell ref="AB83:AH83"/>
+    <mergeCell ref="AI83:AK83"/>
+    <mergeCell ref="AN82:AP82"/>
+    <mergeCell ref="AN62:AP62"/>
+    <mergeCell ref="AB62:AL62"/>
+    <mergeCell ref="AB63:AH63"/>
+    <mergeCell ref="AI63:AK63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
